--- a/features.xlsx
+++ b/features.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2060" yWindow="460" windowWidth="22740" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="3500" yWindow="460" windowWidth="22740" windowHeight="15460" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Original features" sheetId="1" r:id="rId1"/>
+    <sheet name="related posts" sheetId="3" r:id="rId2"/>
+    <sheet name="New features" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="236">
   <si>
     <t>#</t>
   </si>
@@ -622,12 +623,129 @@
   </si>
   <si>
     <t>regional information, only 19 unique values</t>
+  </si>
+  <si>
+    <t>Feature</t>
+  </si>
+  <si>
+    <t>Gain</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>avg_car13_on_ind03</t>
+  </si>
+  <si>
+    <t>ps_ind_05_catnew</t>
+  </si>
+  <si>
+    <t>ps_car_11_catnew</t>
+  </si>
+  <si>
+    <t>ps_car_01_catnew</t>
+  </si>
+  <si>
+    <t>ps_car_03_catnew</t>
+  </si>
+  <si>
+    <t>ps_ind_01</t>
+  </si>
+  <si>
+    <t>avg_car13_on_car11</t>
+  </si>
+  <si>
+    <t>ps_car_07_catnew</t>
+  </si>
+  <si>
+    <t>ps_car_09_catnew</t>
+  </si>
+  <si>
+    <t>avg_car13_on_ind05</t>
+  </si>
+  <si>
+    <t>ps_ind_02_catnew</t>
+  </si>
+  <si>
+    <t>avg_car13_on_ind02</t>
+  </si>
+  <si>
+    <t>ps_ind_04_catnew</t>
+  </si>
+  <si>
+    <t>avg_car13_on_ind07</t>
+  </si>
+  <si>
+    <t>avg_car13_on_ind01</t>
+  </si>
+  <si>
+    <t>avg_car13_on_ind04</t>
+  </si>
+  <si>
+    <t>avg_car13_on_ind06</t>
+  </si>
+  <si>
+    <t>avg_car13_on_reg02</t>
+  </si>
+  <si>
+    <t>ps_car_06_catnew</t>
+  </si>
+  <si>
+    <t>avg_car13_on_reg01</t>
+  </si>
+  <si>
+    <t>ps_car_05_catnew</t>
+  </si>
+  <si>
+    <t>avg_car13_on_ind16</t>
+  </si>
+  <si>
+    <t>avg_car13_on_ind14</t>
+  </si>
+  <si>
+    <t>avg_car13_on_ind09</t>
+  </si>
+  <si>
+    <t>avg_car13_on_ind08</t>
+  </si>
+  <si>
+    <t>ps_car_04_catnew</t>
+  </si>
+  <si>
+    <t>ps_car_08_catnew</t>
+  </si>
+  <si>
+    <t>avg_car13_on_ind12</t>
+  </si>
+  <si>
+    <t>avg_car13_on_ind15</t>
+  </si>
+  <si>
+    <t>avg_car13_on_ind17</t>
+  </si>
+  <si>
+    <t>avg_car13_on_ind18</t>
+  </si>
+  <si>
+    <t>ps_car_02_catnew</t>
+  </si>
+  <si>
+    <t>avg_car13_on_ind11</t>
+  </si>
+  <si>
+    <t>avg_car13_on_ind10</t>
+  </si>
+  <si>
+    <t>avg_car13_on_ind13</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -736,7 +854,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -818,6 +936,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1098,8 +1219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2542,4 +2663,615 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C54"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.1640625" style="37" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="35" t="s">
+        <v>198</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>199</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="35" t="s">
+        <v>201</v>
+      </c>
+      <c r="B2" s="36">
+        <v>0.120632329802577</v>
+      </c>
+      <c r="C2" s="36">
+        <v>3.6120401337792603E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="35" t="s">
+        <v>202</v>
+      </c>
+      <c r="B3" s="36">
+        <v>9.6580350942298193E-2</v>
+      </c>
+      <c r="C3" s="36">
+        <v>7.2201455833169406E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="36">
+        <v>7.9616814804305006E-2</v>
+      </c>
+      <c r="C4" s="36">
+        <v>8.2825103285461305E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="35" t="s">
+        <v>203</v>
+      </c>
+      <c r="B5" s="36">
+        <v>7.8999485996748595E-2</v>
+      </c>
+      <c r="C5" s="36">
+        <v>4.6626008262836902E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="36">
+        <v>6.6007152018238105E-2</v>
+      </c>
+      <c r="C6" s="36">
+        <v>7.3106433208735E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="36">
+        <v>5.8224636493812897E-2</v>
+      </c>
+      <c r="C7" s="36">
+        <v>2.8054298642533899E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="36">
+        <v>4.86871851684295E-2</v>
+      </c>
+      <c r="C8" s="36">
+        <v>6.7676568955341299E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="35" t="s">
+        <v>204</v>
+      </c>
+      <c r="B9" s="36">
+        <v>4.0101440973972599E-2</v>
+      </c>
+      <c r="C9" s="36">
+        <v>4.0173126106629903E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="36">
+        <v>3.49955482196454E-2</v>
+      </c>
+      <c r="C10" s="36">
+        <v>4.4304544560299003E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="35" t="s">
+        <v>205</v>
+      </c>
+      <c r="B11" s="36">
+        <v>2.9611237276546801E-2</v>
+      </c>
+      <c r="C11" s="36">
+        <v>2.0735785953177301E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="36">
+        <v>2.8064250764773299E-2</v>
+      </c>
+      <c r="C12" s="36">
+        <v>1.3850088530395399E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="35" t="s">
+        <v>206</v>
+      </c>
+      <c r="B13" s="36">
+        <v>2.7928461432547201E-2</v>
+      </c>
+      <c r="C13" s="36">
+        <v>4.11174503246114E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="36">
+        <v>2.4967177983117698E-2</v>
+      </c>
+      <c r="C14" s="36">
+        <v>3.0651190241983099E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="35" t="s">
+        <v>207</v>
+      </c>
+      <c r="B15" s="36">
+        <v>2.4585370602153302E-2</v>
+      </c>
+      <c r="C15" s="36">
+        <v>4.9813102498524497E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="35" t="s">
+        <v>208</v>
+      </c>
+      <c r="B16" s="36">
+        <v>2.1637308019255001E-2</v>
+      </c>
+      <c r="C16" s="36">
+        <v>2.0775132795593201E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="35" t="s">
+        <v>209</v>
+      </c>
+      <c r="B17" s="36">
+        <v>1.9924198988946401E-2</v>
+      </c>
+      <c r="C17" s="36">
+        <v>2.1719457013574701E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="36">
+        <v>1.79789813568683E-2</v>
+      </c>
+      <c r="C18" s="36">
+        <v>1.03875663977966E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="35" t="s">
+        <v>210</v>
+      </c>
+      <c r="B19" s="36">
+        <v>1.6968616253064301E-2</v>
+      </c>
+      <c r="C19" s="36">
+        <v>1.44402911666339E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="36">
+        <v>1.4888679676576101E-2</v>
+      </c>
+      <c r="C20" s="36">
+        <v>1.2630336415502701E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="36">
+        <v>1.4866135543087799E-2</v>
+      </c>
+      <c r="C21" s="36">
+        <v>3.4664568168404498E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="35" t="s">
+        <v>211</v>
+      </c>
+      <c r="B22" s="36">
+        <v>1.4858628545277501E-2</v>
+      </c>
+      <c r="C22" s="36">
+        <v>1.7155223293330701E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="36">
+        <v>1.2436886241765E-2</v>
+      </c>
+      <c r="C23" s="36">
+        <v>2.1404682274247501E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="36">
+        <v>1.19318513513187E-2</v>
+      </c>
+      <c r="C24" s="36">
+        <v>7.7119811135156402E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="35" t="s">
+        <v>212</v>
+      </c>
+      <c r="B25" s="36">
+        <v>9.7120814682968605E-3</v>
+      </c>
+      <c r="C25" s="36">
+        <v>1.7115876450914801E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="35" t="s">
+        <v>213</v>
+      </c>
+      <c r="B26" s="36">
+        <v>6.62324875350575E-3</v>
+      </c>
+      <c r="C26" s="36">
+        <v>9.4825890222309701E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="35" t="s">
+        <v>214</v>
+      </c>
+      <c r="B27" s="36">
+        <v>6.5991751620626997E-3</v>
+      </c>
+      <c r="C27" s="36">
+        <v>1.61715522329333E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="35" t="s">
+        <v>215</v>
+      </c>
+      <c r="B28" s="36">
+        <v>6.5419032646097299E-3</v>
+      </c>
+      <c r="C28" s="36">
+        <v>1.3653354318316E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="B29" s="36">
+        <v>6.5264400130833396E-3</v>
+      </c>
+      <c r="C29" s="36">
+        <v>1.03875663977966E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="36">
+        <v>6.4409403548997797E-3</v>
+      </c>
+      <c r="C30" s="36">
+        <v>1.3771394845563599E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="35" t="s">
+        <v>217</v>
+      </c>
+      <c r="B31" s="36">
+        <v>5.9850601319008899E-3</v>
+      </c>
+      <c r="C31" s="36">
+        <v>1.42829037969703E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="35" t="s">
+        <v>218</v>
+      </c>
+      <c r="B32" s="36">
+        <v>5.9682791228028702E-3</v>
+      </c>
+      <c r="C32" s="36">
+        <v>1.3377926421404699E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="36">
+        <v>4.47659949489686E-3</v>
+      </c>
+      <c r="C33" s="36">
+        <v>4.7216210899075402E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="35" t="s">
+        <v>219</v>
+      </c>
+      <c r="B34" s="36">
+        <v>4.25022861534165E-3</v>
+      </c>
+      <c r="C34" s="36">
+        <v>9.0497737556561094E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" s="36">
+        <v>3.67568265056291E-3</v>
+      </c>
+      <c r="C35" s="36">
+        <v>8.2234900649222897E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="35" t="s">
+        <v>220</v>
+      </c>
+      <c r="B36" s="36">
+        <v>3.3983931385380898E-3</v>
+      </c>
+      <c r="C36" s="36">
+        <v>8.1841432225063897E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="35" t="s">
+        <v>221</v>
+      </c>
+      <c r="B37" s="36">
+        <v>3.3193634548427898E-3</v>
+      </c>
+      <c r="C37" s="36">
+        <v>7.3972063741884701E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="35" t="s">
+        <v>222</v>
+      </c>
+      <c r="B38" s="36">
+        <v>2.9958170634246401E-3</v>
+      </c>
+      <c r="C38" s="36">
+        <v>6.6496163682864496E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="35" t="s">
+        <v>223</v>
+      </c>
+      <c r="B39" s="36">
+        <v>2.6051528774008702E-3</v>
+      </c>
+      <c r="C39" s="36">
+        <v>4.5248868778280504E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="35" t="s">
+        <v>224</v>
+      </c>
+      <c r="B40" s="36">
+        <v>2.5536463479840701E-3</v>
+      </c>
+      <c r="C40" s="36">
+        <v>7.0430847924454103E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="35" t="s">
+        <v>225</v>
+      </c>
+      <c r="B41" s="36">
+        <v>2.2010983837218098E-3</v>
+      </c>
+      <c r="C41" s="36">
+        <v>3.9740310840055103E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="35" t="s">
+        <v>226</v>
+      </c>
+      <c r="B42" s="36">
+        <v>2.1348133636179701E-3</v>
+      </c>
+      <c r="C42" s="36">
+        <v>5.0363958292346999E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="35" t="s">
+        <v>227</v>
+      </c>
+      <c r="B43" s="36">
+        <v>1.67319349852983E-3</v>
+      </c>
+      <c r="C43" s="36">
+        <v>2.6362384418650402E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="35" t="s">
+        <v>228</v>
+      </c>
+      <c r="B44" s="36">
+        <v>1.65576517721324E-3</v>
+      </c>
+      <c r="C44" s="36">
+        <v>2.79362581152862E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="35" t="s">
+        <v>229</v>
+      </c>
+      <c r="B45" s="36">
+        <v>1.4994221128844199E-3</v>
+      </c>
+      <c r="C45" s="36">
+        <v>3.5018689750147599E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="35" t="s">
+        <v>230</v>
+      </c>
+      <c r="B46" s="36">
+        <v>1.4288779529421901E-3</v>
+      </c>
+      <c r="C46" s="36">
+        <v>2.55754475703325E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B47" s="36">
+        <v>1.2512058310244301E-3</v>
+      </c>
+      <c r="C47" s="36">
+        <v>2.51819791461735E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="B48" s="36">
+        <v>7.9290725838822198E-4</v>
+      </c>
+      <c r="C48" s="36">
+        <v>1.8493015935471199E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="B49" s="36">
+        <v>5.4844811853032097E-4</v>
+      </c>
+      <c r="C49" s="36">
+        <v>1.0623647452292001E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="35" t="s">
+        <v>233</v>
+      </c>
+      <c r="B50" s="36">
+        <v>3.2397407510044202E-4</v>
+      </c>
+      <c r="C50" s="36">
+        <v>9.0497737556561101E-4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="35" t="s">
+        <v>234</v>
+      </c>
+      <c r="B51" s="36">
+        <v>1.54725872793464E-4</v>
+      </c>
+      <c r="C51" s="36">
+        <v>5.9020263623844199E-4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="35" t="s">
+        <v>235</v>
+      </c>
+      <c r="B52" s="36">
+        <v>9.5637789908968197E-5</v>
+      </c>
+      <c r="C52" s="36">
+        <v>2.7542789691127303E-4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="B53" s="36">
+        <v>6.3262552065159394E-5</v>
+      </c>
+      <c r="C53" s="36">
+        <v>7.8693684831792295E-5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54" s="36">
+        <v>1.19276438014319E-5</v>
+      </c>
+      <c r="C54" s="36">
+        <v>3.93468424158961E-5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/features.xlsx
+++ b/features.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3500" yWindow="460" windowWidth="22740" windowHeight="15460" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="22740" windowHeight="15460" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Original features" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="237">
   <si>
     <t>#</t>
   </si>
@@ -737,6 +737,9 @@
   </si>
   <si>
     <t>avg_car13_on_ind13</t>
+  </si>
+  <si>
+    <t>ps_car_10_catnew</t>
   </si>
 </sst>
 </file>
@@ -854,7 +857,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -939,6 +942,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1219,9 +1224,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2667,7 +2670,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C54"/>
+  <dimension ref="A1:H54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2675,9 +2678,11 @@
   <cols>
     <col min="1" max="1" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="12.1640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.1640625" style="38" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12.1640625" style="39" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="35" t="s">
         <v>198</v>
       </c>
@@ -2687,8 +2692,17 @@
       <c r="C1" s="36" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F1" s="35" t="s">
+        <v>198</v>
+      </c>
+      <c r="G1" s="36" t="s">
+        <v>199</v>
+      </c>
+      <c r="H1" s="36" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="35" t="s">
         <v>201</v>
       </c>
@@ -2698,8 +2712,17 @@
       <c r="C2" s="36">
         <v>3.6120401337792603E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F2" s="35" t="s">
+        <v>212</v>
+      </c>
+      <c r="G2" s="36">
+        <v>9.7592561975454295E-2</v>
+      </c>
+      <c r="H2" s="36">
+        <v>5.0487249434694098E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="35" t="s">
         <v>202</v>
       </c>
@@ -2709,8 +2732,17 @@
       <c r="C3" s="36">
         <v>7.2201455833169406E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F3" s="35" t="s">
+        <v>202</v>
+      </c>
+      <c r="G3" s="36">
+        <v>9.4440315793511406E-2</v>
+      </c>
+      <c r="H3" s="36">
+        <v>6.1881885265029898E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="35" t="s">
         <v>47</v>
       </c>
@@ -2720,8 +2752,17 @@
       <c r="C4" s="36">
         <v>8.2825103285461305E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F4" s="35" t="s">
+        <v>203</v>
+      </c>
+      <c r="G4" s="36">
+        <v>8.5611897140312004E-2</v>
+      </c>
+      <c r="H4" s="36">
+        <v>5.2515108353652203E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="35" t="s">
         <v>203</v>
       </c>
@@ -2731,8 +2772,17 @@
       <c r="C5" s="36">
         <v>4.6626008262836902E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F5" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="36">
+        <v>8.4839286064054706E-2</v>
+      </c>
+      <c r="H5" s="36">
+        <v>8.6039156990077997E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="35" t="s">
         <v>24</v>
       </c>
@@ -2742,8 +2792,17 @@
       <c r="C6" s="36">
         <v>7.3106433208735E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F6" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="36">
+        <v>7.0484062492374197E-2</v>
+      </c>
+      <c r="H6" s="36">
+        <v>7.9400333148250998E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="35" t="s">
         <v>23</v>
       </c>
@@ -2753,8 +2812,17 @@
       <c r="C7" s="36">
         <v>2.8054298642533899E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F7" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="36">
+        <v>5.47810014615445E-2</v>
+      </c>
+      <c r="H7" s="36">
+        <v>2.2507624588594101E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="35" t="s">
         <v>50</v>
       </c>
@@ -2764,8 +2832,17 @@
       <c r="C8" s="36">
         <v>6.7676568955341299E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F8" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="36">
+        <v>4.8430693452749703E-2</v>
+      </c>
+      <c r="H8" s="36">
+        <v>6.5873226629328305E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="35" t="s">
         <v>204</v>
       </c>
@@ -2775,8 +2852,17 @@
       <c r="C9" s="36">
         <v>4.0173126106629903E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F9" s="35" t="s">
+        <v>204</v>
+      </c>
+      <c r="G9" s="36">
+        <v>4.0680899462392797E-2</v>
+      </c>
+      <c r="H9" s="36">
+        <v>3.9840990110164197E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="35" t="s">
         <v>51</v>
       </c>
@@ -2786,8 +2872,17 @@
       <c r="C10" s="36">
         <v>4.4304544560299003E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F10" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="36">
+        <v>3.6028017160567402E-2</v>
+      </c>
+      <c r="H10" s="36">
+        <v>4.5200331538839102E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="35" t="s">
         <v>205</v>
       </c>
@@ -2797,8 +2892,17 @@
       <c r="C11" s="36">
         <v>2.0735785953177301E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F11" s="35" t="s">
+        <v>206</v>
+      </c>
+      <c r="G11" s="36">
+        <v>3.0880625992805701E-2</v>
+      </c>
+      <c r="H11" s="36">
+        <v>4.6182072761509298E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="35" t="s">
         <v>34</v>
       </c>
@@ -2808,8 +2912,17 @@
       <c r="C12" s="36">
         <v>1.3850088530395399E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F12" s="35" t="s">
+        <v>205</v>
+      </c>
+      <c r="G12" s="36">
+        <v>3.0536310046132699E-2</v>
+      </c>
+      <c r="H12" s="36">
+        <v>2.1187906879430899E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="35" t="s">
         <v>206</v>
       </c>
@@ -2819,8 +2932,17 @@
       <c r="C13" s="36">
         <v>4.11174503246114E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F13" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="36">
+        <v>2.9107275389599299E-2</v>
+      </c>
+      <c r="H13" s="36">
+        <v>3.9132848900369402E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="35" t="s">
         <v>10</v>
       </c>
@@ -2830,8 +2952,17 @@
       <c r="C14" s="36">
         <v>3.0651190241983099E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F14" s="35" t="s">
+        <v>207</v>
+      </c>
+      <c r="G14" s="36">
+        <v>2.90287747421306E-2</v>
+      </c>
+      <c r="H14" s="36">
+        <v>5.4575155509419097E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="35" t="s">
         <v>207</v>
       </c>
@@ -2841,8 +2972,17 @@
       <c r="C15" s="36">
         <v>4.9813102498524497E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F15" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="36">
+        <v>2.8047595028191701E-2</v>
+      </c>
+      <c r="H15" s="36">
+        <v>1.48951065832991E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="35" t="s">
         <v>208</v>
       </c>
@@ -2852,8 +2992,17 @@
       <c r="C16" s="36">
         <v>2.0775132795593201E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F16" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="G16" s="36">
+        <v>2.5750528977297599E-2</v>
+      </c>
+      <c r="H16" s="36">
+        <v>2.9613177864149499E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="35" t="s">
         <v>209</v>
       </c>
@@ -2863,8 +3012,17 @@
       <c r="C17" s="36">
         <v>2.1719457013574701E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F17" s="35" t="s">
+        <v>210</v>
+      </c>
+      <c r="G17" s="36">
+        <v>2.18046533747E-2</v>
+      </c>
+      <c r="H17" s="36">
+        <v>3.1391577947838999E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="35" t="s">
         <v>9</v>
       </c>
@@ -2874,8 +3032,17 @@
       <c r="C18" s="36">
         <v>1.03875663977966E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F18" s="35" t="s">
+        <v>209</v>
+      </c>
+      <c r="G18" s="36">
+        <v>2.0276820449275999E-2</v>
+      </c>
+      <c r="H18" s="36">
+        <v>2.0326871544794001E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="35" t="s">
         <v>210</v>
       </c>
@@ -2885,8 +3052,17 @@
       <c r="C19" s="36">
         <v>1.44402911666339E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F19" s="35" t="s">
+        <v>208</v>
+      </c>
+      <c r="G19" s="36">
+        <v>2.01365721718577E-2</v>
+      </c>
+      <c r="H19" s="36">
+        <v>1.7598918475243201E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="35" t="s">
         <v>48</v>
       </c>
@@ -2896,8 +3072,17 @@
       <c r="C20" s="36">
         <v>1.2630336415502701E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F20" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="36">
+        <v>1.8949113176135301E-2</v>
+      </c>
+      <c r="H20" s="36">
+        <v>4.2416049054872902E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="35" t="s">
         <v>14</v>
       </c>
@@ -2907,8 +3092,17 @@
       <c r="C21" s="36">
         <v>3.4664568168404498E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F21" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="36">
+        <v>1.8371491461993201E-2</v>
+      </c>
+      <c r="H21" s="36">
+        <v>1.17487064352332E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="35" t="s">
         <v>211</v>
       </c>
@@ -2918,8 +3112,17 @@
       <c r="C22" s="36">
         <v>1.7155223293330701E-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F22" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22" s="36">
+        <v>1.60116511265763E-2</v>
+      </c>
+      <c r="H22" s="36">
+        <v>2.5839107098310901E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="35" t="s">
         <v>28</v>
       </c>
@@ -2929,8 +3132,17 @@
       <c r="C23" s="36">
         <v>2.1404682274247501E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F23" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="G23" s="36">
+        <v>1.55352089448661E-2</v>
+      </c>
+      <c r="H23" s="36">
+        <v>1.28592006051389E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="35" t="s">
         <v>21</v>
       </c>
@@ -2940,8 +3152,17 @@
       <c r="C24" s="36">
         <v>7.7119811135156402E-3</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F24" s="35" t="s">
+        <v>211</v>
+      </c>
+      <c r="G24" s="36">
+        <v>1.5200302979710501E-2</v>
+      </c>
+      <c r="H24" s="36">
+        <v>1.71885184559303E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="35" t="s">
         <v>212</v>
       </c>
@@ -2951,8 +3172,17 @@
       <c r="C25" s="36">
         <v>1.7115876450914801E-2</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F25" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="G25" s="36">
+        <v>1.1780818908000701E-2</v>
+      </c>
+      <c r="H25" s="36">
+        <v>1.7220706692739101E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="35" t="s">
         <v>213</v>
       </c>
@@ -2962,8 +3192,17 @@
       <c r="C26" s="36">
         <v>9.4825890222309701E-3</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F26" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="G26" s="36">
+        <v>1.1622751203944201E-2</v>
+      </c>
+      <c r="H26" s="36">
+        <v>8.2160474454610593E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="35" t="s">
         <v>214</v>
       </c>
@@ -2973,8 +3212,17 @@
       <c r="C27" s="36">
         <v>1.61715522329333E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F27" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="G27" s="36">
+        <v>8.1379300528444994E-3</v>
+      </c>
+      <c r="H27" s="36">
+        <v>1.67700713774151E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="35" t="s">
         <v>215</v>
       </c>
@@ -2984,8 +3232,17 @@
       <c r="C28" s="36">
         <v>1.3653354318316E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F28" s="35" t="s">
+        <v>219</v>
+      </c>
+      <c r="G28" s="36">
+        <v>7.3088622676073202E-3</v>
+      </c>
+      <c r="H28" s="36">
+        <v>1.6440141950124301E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="35" t="s">
         <v>216</v>
       </c>
@@ -2995,8 +3252,17 @@
       <c r="C29" s="36">
         <v>1.03875663977966E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F29" s="35" t="s">
+        <v>213</v>
+      </c>
+      <c r="G29" s="36">
+        <v>7.1984428878303199E-3</v>
+      </c>
+      <c r="H29" s="36">
+        <v>9.86569458191504E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="35" t="s">
         <v>27</v>
       </c>
@@ -3006,8 +3272,17 @@
       <c r="C30" s="36">
         <v>1.3771394845563599E-2</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F30" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="G30" s="36">
+        <v>5.5741054953341897E-3</v>
+      </c>
+      <c r="H30" s="36">
+        <v>1.35110124005182E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="35" t="s">
         <v>217</v>
       </c>
@@ -3017,8 +3292,17 @@
       <c r="C31" s="36">
         <v>1.42829037969703E-2</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F31" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="G31" s="36">
+        <v>4.4336337402632103E-3</v>
+      </c>
+      <c r="H31" s="36">
+        <v>5.6812237967634703E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="35" t="s">
         <v>218</v>
       </c>
@@ -3028,8 +3312,17 @@
       <c r="C32" s="36">
         <v>1.3377926421404699E-2</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F32" s="35" t="s">
+        <v>221</v>
+      </c>
+      <c r="G32" s="36">
+        <v>3.8358565008798601E-3</v>
+      </c>
+      <c r="H32" s="36">
+        <v>7.6929885973171103E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="35" t="s">
         <v>7</v>
       </c>
@@ -3039,8 +3332,17 @@
       <c r="C33" s="36">
         <v>4.7216210899075402E-3</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F33" s="35" t="s">
+        <v>226</v>
+      </c>
+      <c r="G33" s="36">
+        <v>3.02997996706484E-3</v>
+      </c>
+      <c r="H33" s="36">
+        <v>7.5400944724750302E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="35" t="s">
         <v>219</v>
       </c>
@@ -3050,8 +3352,17 @@
       <c r="C34" s="36">
         <v>9.0497737556561094E-3</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F34" s="35" t="s">
+        <v>227</v>
+      </c>
+      <c r="G34" s="36">
+        <v>2.0106465263038599E-3</v>
+      </c>
+      <c r="H34" s="36">
+        <v>3.3314825097168202E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="35" t="s">
         <v>41</v>
       </c>
@@ -3061,8 +3372,17 @@
       <c r="C35" s="36">
         <v>8.2234900649222897E-3</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F35" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="G35" s="36">
+        <v>1.5145258017628001E-3</v>
+      </c>
+      <c r="H35" s="36">
+        <v>2.7279530695507302E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="35" t="s">
         <v>220</v>
       </c>
@@ -3072,8 +3392,17 @@
       <c r="C36" s="36">
         <v>8.1841432225063897E-3</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F36" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="G36" s="36">
+        <v>9.0660238267665301E-4</v>
+      </c>
+      <c r="H36" s="36">
+        <v>1.93934126773371E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="35" t="s">
         <v>221</v>
       </c>
@@ -3083,8 +3412,17 @@
       <c r="C37" s="36">
         <v>7.3972063741884701E-3</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F37" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="G37" s="36">
+        <v>1.00196378505388E-4</v>
+      </c>
+      <c r="H37" s="36">
+        <v>2.81647072077509E-4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="35" t="s">
         <v>222</v>
       </c>
@@ -3094,8 +3432,17 @@
       <c r="C38" s="36">
         <v>6.6496163682864496E-3</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F38" s="35" t="s">
+        <v>236</v>
+      </c>
+      <c r="G38" s="36">
+        <v>1.99890227482499E-5</v>
+      </c>
+      <c r="H38" s="36">
+        <v>8.0470592022145507E-5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="35" t="s">
         <v>223</v>
       </c>
@@ -3106,7 +3453,7 @@
         <v>4.5248868778280504E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="35" t="s">
         <v>224</v>
       </c>
@@ -3117,7 +3464,7 @@
         <v>7.0430847924454103E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="35" t="s">
         <v>225</v>
       </c>
@@ -3128,7 +3475,7 @@
         <v>3.9740310840055103E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="35" t="s">
         <v>226</v>
       </c>
@@ -3139,7 +3486,7 @@
         <v>5.0363958292346999E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="35" t="s">
         <v>227</v>
       </c>
@@ -3150,7 +3497,7 @@
         <v>2.6362384418650402E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="35" t="s">
         <v>228</v>
       </c>
@@ -3161,7 +3508,7 @@
         <v>2.79362581152862E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="35" t="s">
         <v>229</v>
       </c>
@@ -3172,7 +3519,7 @@
         <v>3.5018689750147599E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="35" t="s">
         <v>230</v>
       </c>
@@ -3183,7 +3530,7 @@
         <v>2.55754475703325E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="35" t="s">
         <v>37</v>
       </c>
@@ -3194,7 +3541,7 @@
         <v>2.51819791461735E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="35" t="s">
         <v>231</v>
       </c>

--- a/features.xlsx
+++ b/features.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="22740" windowHeight="15460" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="22740" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Original features" sheetId="1" r:id="rId1"/>
@@ -610,9 +610,6 @@
     <t>age groups…??? (the higher ps_ind_03, the higher ps_ind_01; and insurance claim rate is higher on two sides)</t>
   </si>
   <si>
-    <t>single or married or divorced? (something related to marriage, different group has different distribution of ps_ind_01)</t>
-  </si>
-  <si>
     <t>regional information; (4*ps_reg_03)^2 maps nicely to 2 decimal points</t>
   </si>
   <si>
@@ -740,6 +737,9 @@
   </si>
   <si>
     <t>ps_car_10_catnew</t>
+  </si>
+  <si>
+    <t>something related to marriage or gender, different group has different distribution of ps_ind_01</t>
   </si>
 </sst>
 </file>
@@ -1224,7 +1224,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I60"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19:G21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1651,7 +1653,7 @@
         <v>152</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>193</v>
+        <v>236</v>
       </c>
       <c r="H19" s="23"/>
     </row>
@@ -1715,7 +1717,7 @@
         <v>146</v>
       </c>
       <c r="G22" s="17" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H22" s="17"/>
     </row>
@@ -1739,7 +1741,7 @@
         <v>148</v>
       </c>
       <c r="G23" s="17" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H23" s="17"/>
     </row>
@@ -1763,7 +1765,7 @@
         <v>148</v>
       </c>
       <c r="G24" s="17" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H24" s="17"/>
       <c r="I24" s="33" t="s">
@@ -2066,7 +2068,7 @@
         <v>148</v>
       </c>
       <c r="G38" s="17" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H38" s="17"/>
       <c r="I38" s="33" t="s">
@@ -2672,7 +2674,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2684,27 +2686,27 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="35" t="s">
+        <v>197</v>
+      </c>
+      <c r="B1" s="36" t="s">
         <v>198</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="C1" s="36" t="s">
         <v>199</v>
       </c>
-      <c r="C1" s="36" t="s">
-        <v>200</v>
-      </c>
       <c r="F1" s="35" t="s">
+        <v>197</v>
+      </c>
+      <c r="G1" s="36" t="s">
         <v>198</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="H1" s="36" t="s">
         <v>199</v>
-      </c>
-      <c r="H1" s="36" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="35" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B2" s="36">
         <v>0.120632329802577</v>
@@ -2713,7 +2715,7 @@
         <v>3.6120401337792603E-2</v>
       </c>
       <c r="F2" s="35" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G2" s="36">
         <v>9.7592561975454295E-2</v>
@@ -2724,7 +2726,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="35" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B3" s="36">
         <v>9.6580350942298193E-2</v>
@@ -2733,7 +2735,7 @@
         <v>7.2201455833169406E-2</v>
       </c>
       <c r="F3" s="35" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G3" s="36">
         <v>9.4440315793511406E-2</v>
@@ -2753,7 +2755,7 @@
         <v>8.2825103285461305E-2</v>
       </c>
       <c r="F4" s="35" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G4" s="36">
         <v>8.5611897140312004E-2</v>
@@ -2764,7 +2766,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="35" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B5" s="36">
         <v>7.8999485996748595E-2</v>
@@ -2844,7 +2846,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="35" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B9" s="36">
         <v>4.0101440973972599E-2</v>
@@ -2853,7 +2855,7 @@
         <v>4.0173126106629903E-2</v>
       </c>
       <c r="F9" s="35" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G9" s="36">
         <v>4.0680899462392797E-2</v>
@@ -2884,7 +2886,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="35" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B11" s="36">
         <v>2.9611237276546801E-2</v>
@@ -2893,7 +2895,7 @@
         <v>2.0735785953177301E-2</v>
       </c>
       <c r="F11" s="35" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G11" s="36">
         <v>3.0880625992805701E-2</v>
@@ -2913,7 +2915,7 @@
         <v>1.3850088530395399E-2</v>
       </c>
       <c r="F12" s="35" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G12" s="36">
         <v>3.0536310046132699E-2</v>
@@ -2924,7 +2926,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="35" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B13" s="36">
         <v>2.7928461432547201E-2</v>
@@ -2953,7 +2955,7 @@
         <v>3.0651190241983099E-2</v>
       </c>
       <c r="F14" s="35" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G14" s="36">
         <v>2.90287747421306E-2</v>
@@ -2964,7 +2966,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="35" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B15" s="36">
         <v>2.4585370602153302E-2</v>
@@ -2984,7 +2986,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="35" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B16" s="36">
         <v>2.1637308019255001E-2</v>
@@ -2993,7 +2995,7 @@
         <v>2.0775132795593201E-2</v>
       </c>
       <c r="F16" s="35" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G16" s="36">
         <v>2.5750528977297599E-2</v>
@@ -3004,7 +3006,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="35" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B17" s="36">
         <v>1.9924198988946401E-2</v>
@@ -3013,7 +3015,7 @@
         <v>2.1719457013574701E-2</v>
       </c>
       <c r="F17" s="35" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G17" s="36">
         <v>2.18046533747E-2</v>
@@ -3033,7 +3035,7 @@
         <v>1.03875663977966E-2</v>
       </c>
       <c r="F18" s="35" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G18" s="36">
         <v>2.0276820449275999E-2</v>
@@ -3044,7 +3046,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="35" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B19" s="36">
         <v>1.6968616253064301E-2</v>
@@ -3053,7 +3055,7 @@
         <v>1.44402911666339E-2</v>
       </c>
       <c r="F19" s="35" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G19" s="36">
         <v>2.01365721718577E-2</v>
@@ -3104,7 +3106,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="35" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B22" s="36">
         <v>1.4858628545277501E-2</v>
@@ -3153,7 +3155,7 @@
         <v>7.7119811135156402E-3</v>
       </c>
       <c r="F24" s="35" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G24" s="36">
         <v>1.5200302979710501E-2</v>
@@ -3164,7 +3166,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="35" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B25" s="36">
         <v>9.7120814682968605E-3</v>
@@ -3184,7 +3186,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="35" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B26" s="36">
         <v>6.62324875350575E-3</v>
@@ -3204,7 +3206,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="35" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B27" s="36">
         <v>6.5991751620626997E-3</v>
@@ -3224,7 +3226,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="35" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B28" s="36">
         <v>6.5419032646097299E-3</v>
@@ -3233,7 +3235,7 @@
         <v>1.3653354318316E-2</v>
       </c>
       <c r="F28" s="35" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G28" s="36">
         <v>7.3088622676073202E-3</v>
@@ -3244,7 +3246,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="35" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B29" s="36">
         <v>6.5264400130833396E-3</v>
@@ -3253,7 +3255,7 @@
         <v>1.03875663977966E-2</v>
       </c>
       <c r="F29" s="35" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G29" s="36">
         <v>7.1984428878303199E-3</v>
@@ -3284,7 +3286,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="35" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B31" s="36">
         <v>5.9850601319008899E-3</v>
@@ -3304,7 +3306,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="35" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B32" s="36">
         <v>5.9682791228028702E-3</v>
@@ -3313,7 +3315,7 @@
         <v>1.3377926421404699E-2</v>
       </c>
       <c r="F32" s="35" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G32" s="36">
         <v>3.8358565008798601E-3</v>
@@ -3333,7 +3335,7 @@
         <v>4.7216210899075402E-3</v>
       </c>
       <c r="F33" s="35" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G33" s="36">
         <v>3.02997996706484E-3</v>
@@ -3344,7 +3346,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="35" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B34" s="36">
         <v>4.25022861534165E-3</v>
@@ -3353,7 +3355,7 @@
         <v>9.0497737556561094E-3</v>
       </c>
       <c r="F34" s="35" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G34" s="36">
         <v>2.0106465263038599E-3</v>
@@ -3384,7 +3386,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="35" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B36" s="36">
         <v>3.3983931385380898E-3</v>
@@ -3393,7 +3395,7 @@
         <v>8.1841432225063897E-3</v>
       </c>
       <c r="F36" s="35" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G36" s="36">
         <v>9.0660238267665301E-4</v>
@@ -3404,7 +3406,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="35" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B37" s="36">
         <v>3.3193634548427898E-3</v>
@@ -3424,7 +3426,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="35" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B38" s="36">
         <v>2.9958170634246401E-3</v>
@@ -3433,7 +3435,7 @@
         <v>6.6496163682864496E-3</v>
       </c>
       <c r="F38" s="35" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G38" s="36">
         <v>1.99890227482499E-5</v>
@@ -3444,7 +3446,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="35" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B39" s="36">
         <v>2.6051528774008702E-3</v>
@@ -3455,7 +3457,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="35" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B40" s="36">
         <v>2.5536463479840701E-3</v>
@@ -3466,7 +3468,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="35" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B41" s="36">
         <v>2.2010983837218098E-3</v>
@@ -3477,7 +3479,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="35" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B42" s="36">
         <v>2.1348133636179701E-3</v>
@@ -3488,7 +3490,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="35" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B43" s="36">
         <v>1.67319349852983E-3</v>
@@ -3499,7 +3501,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="35" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B44" s="36">
         <v>1.65576517721324E-3</v>
@@ -3510,7 +3512,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="35" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B45" s="36">
         <v>1.4994221128844199E-3</v>
@@ -3521,7 +3523,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="35" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B46" s="36">
         <v>1.4288779529421901E-3</v>
@@ -3543,7 +3545,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="35" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B48" s="36">
         <v>7.9290725838822198E-4</v>
@@ -3554,7 +3556,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="35" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B49" s="36">
         <v>5.4844811853032097E-4</v>
@@ -3565,7 +3567,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="35" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B50" s="36">
         <v>3.2397407510044202E-4</v>
@@ -3576,7 +3578,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="35" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B51" s="36">
         <v>1.54725872793464E-4</v>
@@ -3587,7 +3589,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="35" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B52" s="36">
         <v>9.5637789908968197E-5</v>
